--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8095992876086739</v>
+        <v>1.326153333333333</v>
       </c>
       <c r="H2">
-        <v>0.8095992876086739</v>
+        <v>3.97846</v>
       </c>
       <c r="I2">
-        <v>0.009866345352279012</v>
+        <v>0.01594171638670932</v>
       </c>
       <c r="J2">
-        <v>0.009866345352279012</v>
+        <v>0.01594171638670932</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N2">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q2">
-        <v>4.437156461230803</v>
+        <v>8.124631097197778</v>
       </c>
       <c r="R2">
-        <v>4.437156461230803</v>
+        <v>73.12167987478</v>
       </c>
       <c r="S2">
-        <v>0.0009804431517994787</v>
+        <v>0.001723457074370635</v>
       </c>
       <c r="T2">
-        <v>0.0009804431517994787</v>
+        <v>0.001723457074370635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8095992876086739</v>
+        <v>1.326153333333333</v>
       </c>
       <c r="H3">
-        <v>0.8095992876086739</v>
+        <v>3.97846</v>
       </c>
       <c r="I3">
-        <v>0.009866345352279012</v>
+        <v>0.01594171638670932</v>
       </c>
       <c r="J3">
-        <v>0.009866345352279012</v>
+        <v>0.01594171638670932</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N3">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q3">
-        <v>28.53106221942287</v>
+        <v>47.39323058186223</v>
       </c>
       <c r="R3">
-        <v>28.53106221942287</v>
+        <v>426.53907523676</v>
       </c>
       <c r="S3">
-        <v>0.006304281764911816</v>
+        <v>0.01005340396953667</v>
       </c>
       <c r="T3">
-        <v>0.006304281764911816</v>
+        <v>0.01005340396953667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8095992876086739</v>
+        <v>1.326153333333333</v>
       </c>
       <c r="H4">
-        <v>0.8095992876086739</v>
+        <v>3.97846</v>
       </c>
       <c r="I4">
-        <v>0.009866345352279012</v>
+        <v>0.01594171638670932</v>
       </c>
       <c r="J4">
-        <v>0.009866345352279012</v>
+        <v>0.01594171638670932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N4">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q4">
-        <v>11.68354715426435</v>
+        <v>19.63374297895778</v>
       </c>
       <c r="R4">
-        <v>11.68354715426435</v>
+        <v>176.70368681062</v>
       </c>
       <c r="S4">
-        <v>0.002581620435567716</v>
+        <v>0.004164855342802016</v>
       </c>
       <c r="T4">
-        <v>0.002581620435567716</v>
+        <v>0.004164855342802016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.9141465650697</v>
+        <v>49.07229233333334</v>
       </c>
       <c r="H5">
-        <v>48.9141465650697</v>
+        <v>147.216877</v>
       </c>
       <c r="I5">
-        <v>0.5961021334992084</v>
+        <v>0.5898990314018667</v>
       </c>
       <c r="J5">
-        <v>0.5961021334992084</v>
+        <v>0.5898990314018667</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N5">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q5">
-        <v>268.0828958210463</v>
+        <v>300.6396487350735</v>
       </c>
       <c r="R5">
-        <v>268.0828958210463</v>
+        <v>2705.756838615661</v>
       </c>
       <c r="S5">
-        <v>0.05923614405280853</v>
+        <v>0.06377391456302231</v>
       </c>
       <c r="T5">
-        <v>0.05923614405280853</v>
+        <v>0.06377391456302231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.9141465650697</v>
+        <v>49.07229233333334</v>
       </c>
       <c r="H6">
-        <v>48.9141465650697</v>
+        <v>147.216877</v>
       </c>
       <c r="I6">
-        <v>0.5961021334992084</v>
+        <v>0.5898990314018667</v>
       </c>
       <c r="J6">
-        <v>0.5961021334992084</v>
+        <v>0.5898990314018667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N6">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q6">
-        <v>1723.781851612169</v>
+        <v>1753.714602434774</v>
       </c>
       <c r="R6">
-        <v>1723.781851612169</v>
+        <v>15783.43142191296</v>
       </c>
       <c r="S6">
-        <v>0.3808903576820403</v>
+        <v>0.3720109629390748</v>
       </c>
       <c r="T6">
-        <v>0.3808903576820403</v>
+        <v>0.3720109629390749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.9141465650697</v>
+        <v>49.07229233333334</v>
       </c>
       <c r="H7">
-        <v>48.9141465650697</v>
+        <v>147.216877</v>
       </c>
       <c r="I7">
-        <v>0.5961021334992084</v>
+        <v>0.5898990314018667</v>
       </c>
       <c r="J7">
-        <v>0.5961021334992084</v>
+        <v>0.5898990314018667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N7">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q7">
-        <v>705.8933309978702</v>
+        <v>726.5168746657856</v>
       </c>
       <c r="R7">
-        <v>705.8933309978702</v>
+        <v>6538.65187199207</v>
       </c>
       <c r="S7">
-        <v>0.1559756317643595</v>
+        <v>0.1541141538997696</v>
       </c>
       <c r="T7">
-        <v>0.1559756317643595</v>
+        <v>0.1541141538997696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.3329082276155</v>
+        <v>32.78916733333333</v>
       </c>
       <c r="H8">
-        <v>32.3329082276155</v>
+        <v>98.367502</v>
       </c>
       <c r="I8">
-        <v>0.3940315211485126</v>
+        <v>0.3941592522114239</v>
       </c>
       <c r="J8">
-        <v>0.3940315211485126</v>
+        <v>0.3941592522114239</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N8">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q8">
-        <v>177.2063968538126</v>
+        <v>200.8816641873651</v>
       </c>
       <c r="R8">
-        <v>177.2063968538126</v>
+        <v>1807.934977686286</v>
       </c>
       <c r="S8">
-        <v>0.03915588728241242</v>
+        <v>0.04261251016978118</v>
       </c>
       <c r="T8">
-        <v>0.03915588728241242</v>
+        <v>0.04261251016978118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.3329082276155</v>
+        <v>32.78916733333333</v>
       </c>
       <c r="H9">
-        <v>32.3329082276155</v>
+        <v>98.367502</v>
       </c>
       <c r="I9">
-        <v>0.3940315211485126</v>
+        <v>0.3941592522114239</v>
       </c>
       <c r="J9">
-        <v>0.3940315211485126</v>
+        <v>0.3941592522114239</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N9">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q9">
-        <v>1139.442969498858</v>
+        <v>1171.798561264357</v>
       </c>
       <c r="R9">
-        <v>1139.442969498858</v>
+        <v>10546.18705137921</v>
       </c>
       <c r="S9">
-        <v>0.2517736451423969</v>
+        <v>0.2485706115130493</v>
       </c>
       <c r="T9">
-        <v>0.2517736451423969</v>
+        <v>0.2485706115130493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.3329082276155</v>
+        <v>32.78916733333333</v>
       </c>
       <c r="H10">
-        <v>32.3329082276155</v>
+        <v>98.367502</v>
       </c>
       <c r="I10">
-        <v>0.3940315211485126</v>
+        <v>0.3941592522114239</v>
       </c>
       <c r="J10">
-        <v>0.3940315211485126</v>
+        <v>0.3941592522114239</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N10">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q10">
-        <v>466.6049781585804</v>
+        <v>485.4446825530771</v>
       </c>
       <c r="R10">
-        <v>466.6049781585804</v>
+        <v>4369.002142977694</v>
       </c>
       <c r="S10">
-        <v>0.1031019887237033</v>
+        <v>0.1029761305285935</v>
       </c>
       <c r="T10">
-        <v>0.1031019887237033</v>
+        <v>0.1029761305285935</v>
       </c>
     </row>
   </sheetData>
